--- a/data/trans_camb/P15B_tráfico-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P15B_tráfico-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-15.57194376514154</v>
+        <v>-12.76821088623181</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.931740744621377</v>
+        <v>-8.829715583088896</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.144073644956</v>
+        <v>-9.352871650438548</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-19.59586358853061</v>
+        <v>-20.94266817958496</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-42.0195789039531</v>
+        <v>-43.00868033818787</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-28.92384888418088</v>
+        <v>-31.10090645490672</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.077895073259489</v>
+        <v>-5.267259899220429</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-15.00306884551306</v>
+        <v>-13.35612835726414</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-6.345937612202583</v>
+        <v>-4.500087965928543</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>35.85474565769554</v>
+        <v>35.1424891684856</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>40.28443849647573</v>
+        <v>41.29303397444936</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41.49823347730693</v>
+        <v>44.12192545479698</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50.95105746781744</v>
+        <v>52.08432817639821</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.86800021209178</v>
+        <v>10.96788496140951</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>29.05211409535154</v>
+        <v>30.04772109738457</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>34.03462597352524</v>
+        <v>33.71957992028909</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>23.06353126186824</v>
+        <v>21.25345218886139</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>30.99311971101491</v>
+        <v>28.88295946872969</v>
       </c>
     </row>
     <row r="7">
@@ -786,11 +786,13 @@
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.456081209899599</v>
-      </c>
-      <c r="J8" s="6" t="inlineStr"/>
+        <v>-0.4552302801566335</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.7318231489682753</v>
+      </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4304065373572629</v>
+        <v>-0.4064082020134466</v>
       </c>
     </row>
     <row r="9">
@@ -828,7 +830,7 @@
         <v>-7.828894162827593</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.209713000977319</v>
+        <v>1.209713000977314</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-66.01301827287715</v>
@@ -837,7 +839,7 @@
         <v>-79.97195680203647</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-66.9847619155676</v>
+        <v>-66.98476191556762</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-20.05257928547796</v>
@@ -846,7 +848,7 @@
         <v>-31.59315016503611</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-19.94980958187121</v>
+        <v>-19.94980958187122</v>
       </c>
     </row>
     <row r="11">
@@ -857,31 +859,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-34.31619441783015</v>
+        <v>-35.63921246490499</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-46.78372418295147</v>
+        <v>-44.79075523178162</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-38.30911720898153</v>
+        <v>-37.23411579703988</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-83.5719720815837</v>
+        <v>-82.65074831337714</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-95.90189849825255</v>
+        <v>-95.39449802898727</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-82.63125513250399</v>
+        <v>-80.34395513757849</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-45.60402818655167</v>
+        <v>-43.77449204286232</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-57.71554465279326</v>
+        <v>-56.40801149429733</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-46.32074738009103</v>
+        <v>-45.20062014967323</v>
       </c>
     </row>
     <row r="12">
@@ -892,31 +894,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>31.17392222755816</v>
+        <v>28.70611440257525</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>23.8388561795512</v>
+        <v>25.34764050484285</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35.93823576751958</v>
+        <v>34.17126950456935</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-42.49567509749141</v>
+        <v>-42.05221872908773</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-55.06964968376514</v>
+        <v>-53.81541114690707</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-50.57456056298047</v>
+        <v>-49.88043752902158</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.882730475542497</v>
+        <v>8.970250453668681</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-4.03816642184013</v>
+        <v>-1.715844417524463</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.325956559785583</v>
+        <v>7.854131576651008</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +935,7 @@
         <v>-0.2132475118602206</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.03295079511334235</v>
+        <v>0.0329507951133422</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.6601301827287714</v>
@@ -942,7 +944,7 @@
         <v>-0.7997195680203647</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.669847619155676</v>
+        <v>-0.6698476191556761</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.3616017628098151</v>
@@ -951,7 +953,7 @@
         <v>-0.5697091945007593</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3597485495419062</v>
+        <v>-0.3597485495419063</v>
       </c>
     </row>
     <row r="14">
@@ -962,31 +964,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6040060176198749</v>
+        <v>-0.6037297346860693</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7947556024901943</v>
+        <v>-0.8013361136066</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7339242587871579</v>
+        <v>-0.7455520096662398</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8357197208158369</v>
+        <v>-0.8265074831337713</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.9590189849825255</v>
+        <v>-0.9539449802898727</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.82631255132504</v>
+        <v>-0.8034395513757849</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6332785905043318</v>
+        <v>-0.6142772846800892</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8093733725790064</v>
+        <v>-0.8034022667085402</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6700656539374545</v>
+        <v>-0.6352127669300537</v>
       </c>
     </row>
     <row r="15">
@@ -997,31 +999,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.417862230803027</v>
+        <v>1.889099681258192</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.371410653390974</v>
+        <v>1.861796183246534</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.931735874606892</v>
+        <v>2.442789793879101</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.4249567509749141</v>
+        <v>-0.4205221872908773</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.5506964968376514</v>
+        <v>-0.5381541114690707</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5057456056298046</v>
+        <v>-0.4988043752902158</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.295499866167978</v>
+        <v>0.3465523662286493</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1138120704231107</v>
+        <v>-0.001903992897219612</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1878660206547897</v>
+        <v>0.2767484236524371</v>
       </c>
     </row>
     <row r="16">
@@ -1042,7 +1044,7 @@
         <v>4.644751615244664</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25.42532865914577</v>
+        <v>25.42532865914578</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>24.74866492256267</v>
@@ -1051,7 +1053,7 @@
         <v>31.44249913778303</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>13.69626961741537</v>
+        <v>13.69626961741536</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>19.36845522311576</v>
@@ -1060,7 +1062,7 @@
         <v>10.3250601700297</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>21.39373794476913</v>
+        <v>21.39373794476914</v>
       </c>
     </row>
     <row r="17">
@@ -1071,31 +1073,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.745187191372512</v>
+        <v>3.125403429841122</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.889545284275567</v>
+        <v>-9.089675565139405</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.278450731160981</v>
+        <v>8.109514084142404</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.814889732619982</v>
+        <v>6.696182842606913</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>9.223736756539394</v>
+        <v>9.399016848668703</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.408300198442339</v>
+        <v>3.865446630298989</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>5.787146912103059</v>
+        <v>6.210146424631777</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.570476636050301</v>
+        <v>-3.840290150969362</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.407876500369312</v>
+        <v>4.673591501380274</v>
       </c>
     </row>
     <row r="18">
@@ -1106,31 +1108,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>33.32953236791029</v>
+        <v>34.28681706700177</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.51553325750089</v>
+        <v>21.85431110208047</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42.58313064579147</v>
+        <v>43.78782146168849</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>55.63871730159028</v>
+        <v>59.43913003958477</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>65.66335261874084</v>
+        <v>66.26254898582803</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>35.13708082568346</v>
+        <v>36.47437125682288</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>33.45102654953644</v>
+        <v>32.72052942696255</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>24.74062040051269</v>
+        <v>25.66053589534843</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>36.20015813790107</v>
+        <v>35.25602041374358</v>
       </c>
     </row>
     <row r="19">
@@ -1147,7 +1149,7 @@
         <v>0.5217006353091468</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2.85578459586186</v>
+        <v>2.855784595861861</v>
       </c>
       <c r="F19" s="6" t="inlineStr">
         <is>
@@ -1171,7 +1173,7 @@
         <v>1.3629731955256</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2.82410861444262</v>
+        <v>2.824108614442621</v>
       </c>
     </row>
     <row r="20">
@@ -1182,25 +1184,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.07770090683073122</v>
+        <v>-0.01553272377316972</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8076053334671272</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2884379661380989</v>
+        <v>0.1274365568213677</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>0.09973621184316661</v>
+        <v>0.1231082237645593</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4440787128728096</v>
+        <v>-0.4602601270036036</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1843306627868437</v>
+        <v>0.07537104050169025</v>
       </c>
     </row>
     <row r="21">
@@ -1211,25 +1213,23 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>11.18301611892267</v>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>12.96914576970974</v>
+      </c>
+      <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>14.27952673783739</v>
+        <v>14.05151508879294</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>14.75892601919625</v>
-      </c>
-      <c r="J21" s="6" t="inlineStr"/>
+        <v>13.06023530851713</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>8.768205213109258</v>
+      </c>
       <c r="K21" s="6" t="n">
-        <v>15.71545387879549</v>
+        <v>12.43093587576019</v>
       </c>
     </row>
     <row r="22">
@@ -1259,7 +1259,7 @@
         <v>0.7146915020802003</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-4.723138292891694</v>
+        <v>-4.723138292891687</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-13.42934714200504</v>
@@ -1279,31 +1279,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-37.0199265339194</v>
+        <v>-36.12611507232421</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-30.6102344918679</v>
+        <v>-32.77465429883981</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-36.62327134725868</v>
+        <v>-37.2967990929464</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-26.49485701187951</v>
+        <v>-27.3618297986769</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-21.02079878633496</v>
+        <v>-20.52439548812112</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-26.51952236976285</v>
+        <v>-26.80548831274531</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-27.8733120937299</v>
+        <v>-27.18751100286995</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-21.95650936913713</v>
+        <v>-22.65746279294331</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-27.40003055793809</v>
+        <v>-26.96829432873569</v>
       </c>
     </row>
     <row r="24">
@@ -1314,31 +1314,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.272290944622386</v>
+        <v>0.301929095277232</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.20975840842241</v>
+        <v>9.590309714355001</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08096338686354364</v>
+        <v>1.308313575797438</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.77795605477713</v>
+        <v>14.25216721984577</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>23.11413590715157</v>
+        <v>23.84366289273305</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.68926412901746</v>
+        <v>14.45559733749062</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2921628113231921</v>
+        <v>1.161347117757413</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.425436638237827</v>
+        <v>7.496352803868287</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.505316520638454</v>
+        <v>2.978423941605101</v>
       </c>
     </row>
     <row r="25">
@@ -1355,7 +1355,7 @@
         <v>-0.2840081840208127</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.4345672541737776</v>
+        <v>-0.4345672541737778</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1907723892466138</v>
@@ -1364,7 +1364,7 @@
         <v>0.02859431986350969</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.188969543800985</v>
+        <v>-0.1889695438009848</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.3875664222935127</v>
@@ -1384,31 +1384,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7140262613341574</v>
+        <v>-0.6886783686979832</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5972877563707609</v>
+        <v>-0.6096789153528372</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7029567016734555</v>
+        <v>-0.7301533828797624</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6654000099599936</v>
+        <v>-0.6971076084388349</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5752632290047655</v>
+        <v>-0.5496506718569257</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6865005353111822</v>
+        <v>-0.6858214530047485</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6196686119537601</v>
+        <v>-0.6082086990679944</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5060481781050921</v>
+        <v>-0.488636346474959</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.6226962894115921</v>
+        <v>-0.6177385416859955</v>
       </c>
     </row>
     <row r="27">
@@ -1419,31 +1419,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.03790392244506023</v>
+        <v>0.03066485351698625</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3853574700506783</v>
+        <v>0.3410275127609332</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1002399238618986</v>
+        <v>0.09084674612598678</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.577143501610911</v>
+        <v>1.350456350438302</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.005639934319775</v>
+        <v>2.274105047148562</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.326234082052361</v>
+        <v>1.295329902687724</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04989984725029811</v>
+        <v>0.07571649620170123</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3372906254741119</v>
+        <v>0.3235902733566234</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1152856397700763</v>
+        <v>0.1651310631993908</v>
       </c>
     </row>
     <row r="28">
@@ -1473,7 +1473,7 @@
         <v>-9.901161550249107</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-1.37825456941737</v>
+        <v>-1.378254569417367</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-15.55809287305663</v>
@@ -1482,7 +1482,7 @@
         <v>-20.87405593675032</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-14.51163781993433</v>
+        <v>-14.51163781993434</v>
       </c>
     </row>
     <row r="29">
@@ -1493,31 +1493,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-62.37248688248034</v>
+        <v>-63.71118310827495</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-70.30915685229361</v>
+        <v>-69.9739838335536</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-64.12956667718747</v>
+        <v>-68.69412083441584</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-27.03971912327822</v>
+        <v>-27.16860623418476</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-31.75258196890483</v>
+        <v>-29.82503729503194</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-24.24082651380514</v>
+        <v>-23.91377111622827</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-32.6776231051885</v>
+        <v>-34.02613105880882</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-38.69354217119078</v>
+        <v>-38.64999715660803</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-32.42359462744474</v>
+        <v>-33.47694229512911</v>
       </c>
     </row>
     <row r="30">
@@ -1528,31 +1528,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.137875205194892</v>
+        <v>-1.636918095998465</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-10.46999555120232</v>
+        <v>-10.98057054613115</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-6.159977983649573</v>
+        <v>-5.75320291178428</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.93207656740849</v>
+        <v>12.07056558374854</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.769481742639935</v>
+        <v>7.011863506461922</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>17.94762611212857</v>
+        <v>19.17728542387622</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.547181312569444</v>
+        <v>2.147991481210929</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-4.661780645255758</v>
+        <v>-4.021188851706994</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.435786371895529</v>
+        <v>3.045165839729703</v>
       </c>
     </row>
     <row r="31">
@@ -1578,7 +1578,7 @@
         <v>-0.467392731732179</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.06506167634504816</v>
+        <v>-0.06506167634504803</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.4602158573216578</v>
@@ -1587,7 +1587,7 @@
         <v>-0.6174645971774836</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.4292612144003984</v>
+        <v>-0.4292612144003985</v>
       </c>
     </row>
     <row r="32">
@@ -1598,31 +1598,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8204086531491612</v>
+        <v>-0.8379892492002767</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.9188037888154886</v>
+        <v>-0.901919976811359</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8817624840514874</v>
+        <v>-0.8900343552990355</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7688014308584287</v>
+        <v>-0.739789056063885</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.8986212537758304</v>
+        <v>-0.8838872636893267</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6733272746072639</v>
+        <v>-0.6631811696553278</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.7055791615358162</v>
+        <v>-0.7247368492491038</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.8289569534537177</v>
+        <v>-0.8224664046903524</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7120140943197463</v>
+        <v>-0.7179287713431211</v>
       </c>
     </row>
     <row r="33">
@@ -1633,31 +1633,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.06207692892290446</v>
+        <v>-0.05782664612583618</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3056738327812586</v>
+        <v>-0.3181066917684511</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2032917104762186</v>
+        <v>-0.1611278642061926</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.347789205718534</v>
+        <v>1.398331988477601</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.940132044384508</v>
+        <v>1.362806992531405</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.033528748507048</v>
+        <v>2.468746399557762</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1500936338968014</v>
+        <v>0.1333439319836216</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2035451376028461</v>
+        <v>-0.1662369069722208</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2220740060923512</v>
+        <v>0.1737770046555963</v>
       </c>
     </row>
     <row r="34">
@@ -1696,7 +1696,7 @@
         <v>-7.589567609403478</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>1.582791323612565</v>
+        <v>1.582791323612573</v>
       </c>
     </row>
     <row r="35">
@@ -1707,31 +1707,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-48.13191833760217</v>
+        <v>-49.60059264704892</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-61.32221935551318</v>
+        <v>-59.4457250638753</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-53.69207176544876</v>
+        <v>-56.02206832272419</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-12.82394445928201</v>
+        <v>-12.19808306220258</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-7.586486613917192</v>
+        <v>-6.343034421601426</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.999599705055223</v>
+        <v>-2.492374755029461</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-22.96269844513155</v>
+        <v>-21.89333291579313</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-25.35769958060457</v>
+        <v>-24.03332190777726</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-17.02834387758174</v>
+        <v>-17.90019533970661</v>
       </c>
     </row>
     <row r="36">
@@ -1742,31 +1742,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8.695901731653526</v>
+        <v>8.447991567238867</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-5.87193785177164</v>
+        <v>-4.491037709265293</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>42.76386024768858</v>
+        <v>43.09535216679134</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14.66086028953605</v>
+        <v>13.7713447866444</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>21.1069913761351</v>
+        <v>20.92933067010852</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>32.28827250686778</v>
+        <v>33.62506607802133</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.402945130987922</v>
+        <v>6.903335515845287</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>6.317937586741998</v>
+        <v>6.172832903691537</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>22.8136354232655</v>
+        <v>21.81366621764221</v>
       </c>
     </row>
     <row r="37">
@@ -1792,7 +1792,7 @@
         <v>1.024501824203906</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>1.832780980918838</v>
+        <v>1.832780980918839</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.3091981130075948</v>
@@ -1801,7 +1801,7 @@
         <v>-0.3247521733228493</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.06772650942892516</v>
+        <v>0.06772650942892551</v>
       </c>
     </row>
     <row r="38">
@@ -1812,31 +1812,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7545875073762742</v>
+        <v>-0.7607291789010145</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.9009100391655328</v>
+        <v>-0.8992585759704054</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.7125251218895133</v>
+        <v>-0.7135824367595982</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6621141598792565</v>
+        <v>-0.5546235357067162</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5538058248912122</v>
+        <v>-0.5243964530538681</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.6647974600782531</v>
+        <v>-0.6420206527053161</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.6901077242182723</v>
+        <v>-0.695740041798328</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.5691971799702027</v>
+        <v>-0.5391969229713944</v>
       </c>
     </row>
     <row r="39">
@@ -1847,25 +1847,25 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3091910917861534</v>
+        <v>0.2866686356467981</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.1666573227228979</v>
+        <v>-0.1094561032557588</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.587624230298765</v>
+        <v>1.423934654404926</v>
       </c>
       <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="inlineStr"/>
       <c r="H39" s="6" t="inlineStr"/>
       <c r="I39" s="6" t="n">
-        <v>0.5180686902793482</v>
+        <v>0.524754369950539</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.5983475087034311</v>
+        <v>0.53175369260842</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.61167847902256</v>
+        <v>1.689507937958065</v>
       </c>
     </row>
     <row r="40">
@@ -1904,7 +1904,7 @@
         <v>-8.27535314839615</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-3.053286440466024</v>
+        <v>-3.053286440466021</v>
       </c>
     </row>
     <row r="41">
@@ -1915,31 +1915,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-17.78879396947654</v>
+        <v>-17.99021967415169</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-21.47423265308944</v>
+        <v>-22.83070792760963</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-17.09020197044481</v>
+        <v>-15.43082751151787</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-11.48498754257741</v>
+        <v>-13.26946777755815</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-13.97058947202486</v>
+        <v>-13.95296435221672</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-9.304048217909143</v>
+        <v>-10.58977090884625</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-12.65072685055717</v>
+        <v>-13.02295910060204</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-15.48180051195332</v>
+        <v>-15.87426794582011</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-10.71971526163737</v>
+        <v>-10.46146786758997</v>
       </c>
     </row>
     <row r="42">
@@ -1950,31 +1950,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.040411592392461</v>
+        <v>3.162196330846463</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.8037595128319497</v>
+        <v>-1.150407812529441</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.031828071004026</v>
+        <v>5.469765550177129</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8.233641675544961</v>
+        <v>7.631776488898745</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.675304977069319</v>
+        <v>6.491878661178847</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>11.2712042240985</v>
+        <v>10.71781658907871</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.967107549774087</v>
+        <v>1.682761977366234</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-1.404728147136007</v>
+        <v>-0.8730796288034448</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.888120037533471</v>
+        <v>5.044692655495981</v>
       </c>
     </row>
     <row r="43">
@@ -2009,7 +2009,7 @@
         <v>-0.300352315093524</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.1108184308986707</v>
+        <v>-0.1108184308986706</v>
       </c>
     </row>
     <row r="44">
@@ -2020,31 +2020,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4388518569239997</v>
+        <v>-0.4425638065490396</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5552199962725319</v>
+        <v>-0.5647407064621166</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.423252894515328</v>
+        <v>-0.4057303041951451</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4106160725828195</v>
+        <v>-0.4509102108206017</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5100579272102121</v>
+        <v>-0.50380851612146</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3436497133318147</v>
+        <v>-0.3708354640895184</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3838950316164049</v>
+        <v>-0.3860733068355652</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4854735913080898</v>
+        <v>-0.4892806491418721</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3282098585927948</v>
+        <v>-0.3233595586932857</v>
       </c>
     </row>
     <row r="45">
@@ -2055,31 +2055,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1238722563780448</v>
+        <v>0.1313803600491788</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.02830880950104543</v>
+        <v>-0.02084237633549707</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.2068198014631337</v>
+        <v>0.1970391944500336</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.6279014939689762</v>
+        <v>0.5631998083615526</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.425598624158358</v>
+        <v>0.4722838812244088</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7832581860116314</v>
+        <v>0.7770416585825649</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.07864950759402052</v>
+        <v>0.08678377233432895</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.0533555377523699</v>
+        <v>-0.03304329056972526</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2173415760765818</v>
+        <v>0.2403805241865701</v>
       </c>
     </row>
     <row r="46">
